--- a/resources/TestData/testForMoreThan800Records.xlsx
+++ b/resources/TestData/testForMoreThan800Records.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnilogProjects\Etna\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hemanthsridhar/Projects/UnilogProjects/template/resources/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -379,16 +384,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B802"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A789" workbookViewId="0">
-      <selection activeCell="A802" sqref="A802:B802"/>
+    <sheetView tabSelected="1" topLeftCell="A791" workbookViewId="0">
+      <selection activeCell="B798" sqref="B798"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -396,7 +401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>12345</v>
       </c>
@@ -404,3199 +409,3199 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B127">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B136">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B143">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B148">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B149">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B151">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B159">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B160">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B161">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B162">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B163">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B164">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B165">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B168">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B169">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B170">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B171">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B173">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B175">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B176">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B177">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B178">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B180">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B183">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B184">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B185">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B186">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B187">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B189">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B190">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B191">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B192">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B193">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B194">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B195">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B196">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B197">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B198">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B200">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B201">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B202">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B203">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B204">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B205">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B206">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B207">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B208">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B209">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B210">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B211">
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B212">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B213">
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B214">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B215">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B216">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B217">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B218">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B219">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B220">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B221">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B222">
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B223">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B224">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B225">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B226">
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B227">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B228">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B229">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B230">
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B231">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B232">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B233">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B234">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B235">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B236">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B237">
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B238">
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B239">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B240">
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B241">
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B242">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B243">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B244">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B245">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B246">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B247">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B248">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B249">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B250">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B251">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B252">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B253">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B254">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B255">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B256">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B257">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B258">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B259">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B260">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B261">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B262">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B263">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B264">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B265">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B266">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B267">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B268">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B269">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B270">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B271">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B272">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B273">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B274">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B275">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B276">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B277">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B278">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B279">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B280">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B281">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B282">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B283">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B284">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B285">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B286">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B287">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B288">
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B289">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B290">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B291">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B292">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B293">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B294">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B295">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B296">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B297">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B298">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B299">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B300">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B301">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B302">
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B303">
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B304">
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B305">
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B306">
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B307">
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B308">
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B309">
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B310">
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B311">
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B312">
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B313">
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B314">
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B315">
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B316">
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B317">
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B318">
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B319">
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B320">
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B321">
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B322">
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B323">
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B324">
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B325">
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B326">
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B327">
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B328">
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B329">
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B330">
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B331">
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B332">
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B333">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B334">
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B335">
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B336">
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B337">
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B338">
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B339">
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B340">
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B341">
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B342">
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B343">
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B344">
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B345">
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B346">
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B347">
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B348">
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B349">
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B350">
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B351">
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B352">
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B353">
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B354">
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B355">
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B356">
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B357">
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B358">
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B359">
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B360">
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B361">
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B362">
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B363">
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B364">
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B365">
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B366">
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B367">
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B368">
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B369">
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B370">
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B371">
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B372">
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B373">
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B374">
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B375">
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B376">
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B377">
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B378">
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B379">
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B380">
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B381">
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B382">
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B383">
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B384">
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B385">
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B386">
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B387">
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B388">
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B389">
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B390">
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B391">
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B392">
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B393">
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B394">
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B395">
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B396">
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B397">
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B398">
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B399">
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B400">
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B401">
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>12345</v>
       </c>
@@ -3604,3201 +3609,3201 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B403">
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B404">
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B405">
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B406">
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B407">
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B408">
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B409">
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B410">
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B411">
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B412">
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B413">
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B414">
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B415">
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B416">
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B417">
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B418">
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B419">
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B420">
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B421">
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B422">
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B423">
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B424">
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B425">
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B426">
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B427">
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B428">
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B429">
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B430">
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B431">
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B432">
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B433">
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B434">
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B435">
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B436">
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B437">
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B438">
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B439">
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B440">
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B441">
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B442">
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B443">
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B444">
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B445">
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B446">
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B447">
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B448">
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B449">
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B450">
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B451">
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B452">
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B453">
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B454">
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B455">
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B456">
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B457">
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B458">
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B459">
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B460">
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B461">
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B462">
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B463">
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B464">
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B465">
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B466">
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B467">
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B468">
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B469">
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B470">
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B471">
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B472">
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B473">
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B474">
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B475">
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B476">
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B477">
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B478">
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B479">
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B480">
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B481">
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B482">
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B483">
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B484">
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B485">
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B486">
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B487">
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B488">
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B489">
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B490">
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B491">
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B492">
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B493">
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B494">
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B495">
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B496">
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B497">
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B498">
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B499">
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B500">
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B501">
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B502">
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B503">
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B504">
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B505">
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B506">
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B507">
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B508">
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B509">
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B510">
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B511">
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B512">
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B513">
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B514">
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B515">
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B516">
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B517">
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B518">
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B519">
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B520">
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B521">
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B522">
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B523">
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B524">
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B525">
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B526">
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B527">
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B528">
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B529">
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B530">
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B531">
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B532">
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B533">
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B534">
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B535">
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B536">
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B537">
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B538">
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B539">
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B540">
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B541">
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B542">
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B543">
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B544">
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B545">
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B546">
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B547">
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B548">
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B549">
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B550">
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B551">
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B552">
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B553">
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B554">
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B555">
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B556">
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B557">
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B558">
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B559">
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B560">
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B561">
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B562">
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B563">
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B564">
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B565">
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B566">
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B567">
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B568">
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B569">
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B570">
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B571">
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B572">
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B573">
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B574">
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B575">
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B576">
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B577">
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B578">
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B579">
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B580">
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B581">
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B582">
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B583">
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B584">
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B585">
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B586">
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B587">
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B588">
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B589">
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B590">
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B591">
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B592">
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B593">
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B594">
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B595">
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B596">
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B597">
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B598">
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B599">
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B600">
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B601">
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B602">
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B603">
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B604">
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B605">
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B606">
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B607">
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B608">
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B609">
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B610">
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B611">
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B612">
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B613">
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B614">
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B615">
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B616">
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B617">
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B618">
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B619">
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B620">
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B621">
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B622">
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B623">
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B624">
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B625">
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B626">
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B627">
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B628">
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B629">
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B630">
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B631">
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B632">
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B633">
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B634">
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B635">
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B636">
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B637">
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B638">
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B639">
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B640">
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B641">
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B642">
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B643">
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B644">
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B645">
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B646">
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B647">
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B648">
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B649">
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B650">
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B651">
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B652">
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B653">
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B654">
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B655">
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B656">
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B657">
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B658">
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B659">
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B660">
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B661">
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B662">
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B663">
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B664">
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B665">
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B666">
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B667">
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B668">
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B669">
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B670">
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B671">
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B672">
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B673">
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B674">
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B675">
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B676">
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B677">
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B678">
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B679">
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B680">
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B681">
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B682">
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B683">
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B684">
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B685">
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B686">
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B687">
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B688">
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B689">
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B690">
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B691">
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B692">
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B693">
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B694">
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B695">
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B696">
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B697">
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B698">
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B699">
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B700">
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B701">
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B702">
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B703">
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B704">
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B705">
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B706">
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B707">
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B708">
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B709">
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B710">
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B711">
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B712">
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B713">
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B714">
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B715">
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B716">
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B717">
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B718">
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B719">
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B720">
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B721">
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B722">
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B723">
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B724">
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B725">
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B726">
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B727">
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B728">
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B729">
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B730">
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B731">
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B732">
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B733">
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B734">
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B735">
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B736">
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B737">
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B738">
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B739">
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B740">
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B741">
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B742">
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B743">
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B744">
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B745">
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B746">
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B747">
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B748">
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B749">
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B750">
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B751">
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B752">
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B753">
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B754">
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B755">
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B756">
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B757">
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B758">
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B759">
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B760">
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B761">
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B762">
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B763">
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B764">
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B765">
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B766">
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B767">
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B768">
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B769">
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B770">
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B771">
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A772">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B772">
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B773">
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A774">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B774">
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A775">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B775">
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A776">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B776">
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A777">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B777">
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B778">
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B779">
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A780">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B780">
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A781">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B781">
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A782">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B782">
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A783">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B783">
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A784">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B784">
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B785">
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A786">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B786">
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A787">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B787">
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A788">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B788">
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A789">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B789">
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A790">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B790">
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A791">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B791">
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A792">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B792">
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A793">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B793">
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A794">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B794">
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A795">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B795">
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A796">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B796">
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A797">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B797">
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A798">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B798">
         <v>1</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A799">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B799">
         <v>1</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A800">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B800">
         <v>1</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A801">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B801">
         <v>1</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A802">
-        <v>168867</v>
+        <v>12345</v>
       </c>
       <c r="B802">
         <v>1</v>
@@ -6816,7 +6821,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6828,7 +6833,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
